--- a/InitialData/InitialData.xlsx
+++ b/InitialData/InitialData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>StarCraft Pro</t>
   </si>
   <si>
-    <t>Another Vendor</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Azeroth</t>
+  </si>
+  <si>
+    <t>South Park Gang</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   </sheetPr>
   <dimension ref="A1:AMK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -1773,7 +1773,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
@@ -1845,7 +1845,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="6">
         <v>3</v>
@@ -1869,7 +1869,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2235,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2245,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2255,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2478,8 +2478,8 @@
   </sheetPr>
   <dimension ref="A1:AMI6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2579,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2612,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,10 +2623,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2634,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2678,10 +2678,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,10 +2689,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2700,10 +2700,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,10 +2711,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,10 +2722,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,10 +2733,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,10 +2744,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,10 +2766,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,10 +2788,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2810,10 +2810,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,10 +2821,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,10 +2832,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2843,10 +2843,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2854,10 +2854,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,10 +2865,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,10 +2876,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,10 +2887,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,10 +2898,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,10 +2909,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,10 +2920,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" ht="15.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
